--- a/Sprint 2/sprint 3.xlsx
+++ b/Sprint 2/sprint 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:AMI46"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -29423,7 +29423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
